--- a/data/elections/not_imputed/Congressional Elections (2002).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2002).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF75C187-5A07-F840-BBA5-001D949C596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9399831C-6E7E-7B4E-AFC7-4FFD30B5E01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15320" yWindow="7860" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
@@ -380,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -405,14 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -455,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -464,7 +456,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -754,7 +745,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A11"/>
+      <selection pane="bottomRight" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,10 +753,10 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -788,7 +779,7 @@
       <c r="E1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>105</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -817,17 +808,17 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>694606</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>507117</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <f t="shared" ref="F2:F51" si="0">G2-E2-D2</f>
         <v>67079</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>1268802</v>
       </c>
       <c r="H2" s="4">
@@ -854,17 +845,17 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>169685</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>39357</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f t="shared" si="0"/>
         <v>18683</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>227725</v>
       </c>
       <c r="H3" s="4">
@@ -891,17 +882,17 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>681922</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>472135</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>40343</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>1194400</v>
       </c>
       <c r="H4" s="4">
@@ -928,17 +919,17 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>283739</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>392086</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>12451</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>688276</v>
       </c>
       <c r="H5" s="4">
@@ -965,17 +956,17 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>3225666</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>3731081</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>301670</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>7258417</v>
       </c>
       <c r="H6" s="4">
@@ -1002,17 +993,17 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>752998</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>589463</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>54627</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>1397088</v>
       </c>
       <c r="H7" s="4">
@@ -1039,17 +1030,17 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>465982</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>509036</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>14291</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>989309</v>
       </c>
       <c r="H8" s="4">
@@ -1076,17 +1067,17 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>164605</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>61011</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>2789</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>228405</v>
       </c>
       <c r="H9" s="4">
@@ -1113,17 +1104,17 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>2161349</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>1537124</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>68085</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>3766558</v>
       </c>
       <c r="H10" s="4">
@@ -1150,17 +1141,17 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>1104622</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>814295</v>
       </c>
-      <c r="F11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
         <v>1918917</v>
       </c>
       <c r="H11" s="4">
@@ -1187,17 +1178,17 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>116693</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>232344</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>10947</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>359984</v>
       </c>
       <c r="H12" s="4">
@@ -1224,17 +1215,17 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>256348</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>138038</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>10637</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>405023</v>
       </c>
       <c r="H13" s="4">
@@ -1261,17 +1252,17 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>1657183</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>1740541</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>31412</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>3429136</v>
       </c>
       <c r="H14" s="4">
@@ -1298,17 +1289,17 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>840694</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>640568</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>40091</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>1521353</v>
       </c>
       <c r="H15" s="4">
@@ -1335,17 +1326,17 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>546382</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>453550</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>12690</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>1012622</v>
       </c>
       <c r="H16" s="4">
@@ -1372,17 +1363,17 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>536026</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>259911</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>33953</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>829890</v>
       </c>
       <c r="H17" s="4">
@@ -1409,17 +1400,17 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>693860</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>350924</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>49458</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>1094242</v>
       </c>
       <c r="H18" s="4">
@@ -1446,17 +1437,17 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>667702</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>390644</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>81817</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>1140163</v>
       </c>
       <c r="H19" s="4">
@@ -1483,17 +1474,17 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>205780</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>289514</v>
       </c>
-      <c r="F20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
         <v>495294</v>
       </c>
       <c r="H20" s="4">
@@ -1520,17 +1511,17 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>752911</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>904250</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>1659113</v>
       </c>
       <c r="H21" s="4">
@@ -1557,17 +1548,17 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>290484</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>1528634</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>401208</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>2220326</v>
       </c>
       <c r="H22" s="4">
@@ -1594,17 +1585,17 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>1474178</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>1507174</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f t="shared" si="0"/>
         <v>74545</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>3055897</v>
       </c>
       <c r="H23" s="4">
@@ -1631,17 +1622,17 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>1029612</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>1097911</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f t="shared" si="0"/>
         <v>74115</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>2201638</v>
       </c>
       <c r="H24" s="4">
@@ -1668,17 +1659,17 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>338817</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>320157</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>18662</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>677636</v>
       </c>
       <c r="H25" s="4">
@@ -1705,17 +1696,17 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>985905</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>829177</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>38481</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>1853563</v>
       </c>
       <c r="H26" s="4">
@@ -1742,17 +1733,17 @@
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>214100</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>108233</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <f t="shared" si="0"/>
         <v>8988</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>331321</v>
       </c>
       <c r="H27" s="4">
@@ -1779,17 +1770,17 @@
       <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>386869</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>46843</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f t="shared" si="0"/>
         <v>40102</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <v>473814</v>
       </c>
       <c r="H28" s="4">
@@ -1816,17 +1807,17 @@
       <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>301100</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>171160</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <f t="shared" si="0"/>
         <v>29593</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>501853</v>
       </c>
       <c r="H29" s="4">
@@ -1853,17 +1844,17 @@
       <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>254797</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>175905</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>12741</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>443443</v>
       </c>
       <c r="H30" s="4">
@@ -1890,17 +1881,17 @@
       <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>933964</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>1030204</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>41891</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>2006059</v>
       </c>
       <c r="H31" s="4">
@@ -1927,17 +1918,17 @@
       <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>175342</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>262071</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>437495</v>
       </c>
       <c r="H32" s="4">
@@ -1964,17 +1955,17 @@
       <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>1525771</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>1777688</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <f t="shared" si="0"/>
         <v>1397550</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>4701009</v>
       </c>
       <c r="H33" s="4">
@@ -2001,17 +1992,17 @@
       <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>1209033</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>970716</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <f t="shared" si="0"/>
         <v>64400</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>2244149</v>
       </c>
       <c r="H34" s="4">
@@ -2038,17 +2029,17 @@
       <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>109957</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>121073</v>
       </c>
-      <c r="F35" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="10">
+      <c r="F35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
         <v>231030</v>
       </c>
       <c r="H35" s="4">
@@ -2075,17 +2066,17 @@
       <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>1775555</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>1331614</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <f t="shared" si="0"/>
         <v>50854</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>3158023</v>
       </c>
       <c r="H36" s="4">
@@ -2112,17 +2103,17 @@
       <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>546832</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>391927</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f t="shared" si="0"/>
         <v>63093</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>1001852</v>
       </c>
       <c r="H37" s="4">
@@ -2149,17 +2140,17 @@
       <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>528997</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>676920</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <f t="shared" si="0"/>
         <v>34398</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>1240315</v>
       </c>
       <c r="H38" s="4">
@@ -2186,17 +2177,17 @@
       <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>1859270</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>1348665</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <f t="shared" si="0"/>
         <v>102378</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>3310313</v>
       </c>
       <c r="H39" s="4">
@@ -2223,17 +2214,17 @@
       <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>97137</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>224676</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <f t="shared" si="0"/>
         <v>6930</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>328743</v>
       </c>
       <c r="H40" s="4">
@@ -2260,17 +2251,17 @@
       <c r="C41" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>569267</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <v>344972</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <f t="shared" si="0"/>
         <v>70176</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <v>984415</v>
       </c>
       <c r="H41" s="4">
@@ -2297,17 +2288,17 @@
       <c r="C42" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>180023</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="9">
         <v>153551</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <f t="shared" si="0"/>
         <v>3117</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>336691</v>
       </c>
       <c r="H42" s="4">
@@ -2334,17 +2325,17 @@
       <c r="C43" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>770510</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <v>708375</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <f t="shared" si="0"/>
         <v>50505</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>1529390</v>
       </c>
       <c r="H43" s="4">
@@ -2371,17 +2362,17 @@
       <c r="C44" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>2290723</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <v>1885178</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <f t="shared" si="0"/>
         <v>119309</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <v>4295210</v>
       </c>
       <c r="H44" s="4">
@@ -2408,17 +2399,17 @@
       <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>321986</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="9">
         <v>221401</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <f t="shared" si="0"/>
         <v>13766</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <v>557153</v>
       </c>
       <c r="H45" s="4">
@@ -2445,17 +2436,17 @@
       <c r="C46" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>72813</v>
       </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10">
         <f t="shared" si="0"/>
         <v>152442</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>225255</v>
       </c>
       <c r="H46" s="4">
@@ -2482,17 +2473,17 @@
       <c r="C47" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>955673</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="9">
         <v>440478</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <f t="shared" si="0"/>
         <v>120331</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="9">
         <v>1516482</v>
       </c>
       <c r="H47" s="4">
@@ -2519,17 +2510,17 @@
       <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>778922</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
         <v>907440</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <f t="shared" si="0"/>
         <v>52754</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <v>1739116</v>
       </c>
       <c r="H48" s="4">
@@ -2556,17 +2547,17 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>135505</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="9">
         <v>264124</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="9">
         <v>399949</v>
       </c>
       <c r="H49" s="4">
@@ -2593,17 +2584,17 @@
       <c r="C50" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>889146</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="9">
         <v>676925</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <f t="shared" si="0"/>
         <v>71475</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="9">
         <v>1637546</v>
       </c>
       <c r="H50" s="4">
@@ -2630,17 +2621,17 @@
       <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>110229</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <v>65961</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <f t="shared" si="0"/>
         <v>5962</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <v>182152</v>
       </c>
       <c r="H51" s="4">

--- a/data/elections/not_imputed/Congressional Elections (2002).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2002).xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9399831C-6E7E-7B4E-AFC7-4FFD30B5E01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8152463B-6FD6-694B-979F-B980EECD5793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="7860" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
+    <sheet name="UPDATED" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$K$1:$K$51</definedName>
+    <definedName name="Congressional_Elections__2002" localSheetId="1">UPDATED!$A$1:$J$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +42,29 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{77EC2A17-852A-7C4E-97F1-764C551E7410}" name="Congressional Elections (2002)" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/Congressional Elections (2002).csv" comma="1">
+      <textFields count="10">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
   <si>
     <t>Alabama</t>
   </si>
@@ -374,6 +397,12 @@
   </si>
   <si>
     <t>TOT_S</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Vote share</t>
   </si>
 </sst>
 </file>
@@ -382,14 +411,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -407,6 +428,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,24 +472,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -474,6 +509,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Congressional Elections (2002)" connectionId="1" xr16:uid="{BE89162A-353E-664E-BF30-E07FA3415FBD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,13 +778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:K1"/>
+      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,14 +792,14 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -808,30 +847,28 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>694606</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="12">
         <v>507117</v>
       </c>
-      <c r="F2" s="10">
-        <f t="shared" ref="F2:F51" si="0">G2-E2-D2</f>
+      <c r="F2" s="12">
         <v>67079</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="12">
         <v>1268802</v>
       </c>
-      <c r="H2" s="4">
-        <f t="shared" ref="H2:H51" si="1">K2-I2-J2</f>
+      <c r="H2" s="13">
         <v>5</v>
       </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="I2" s="14">
+        <v>2</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
         <v>7</v>
       </c>
     </row>
@@ -845,30 +882,28 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>169685</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="12">
         <v>39357</v>
       </c>
-      <c r="F3" s="10">
-        <f t="shared" si="0"/>
+      <c r="F3" s="12">
         <v>18683</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="12">
         <v>227725</v>
       </c>
-      <c r="H3" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
         <v>1</v>
       </c>
     </row>
@@ -882,30 +917,28 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>681922</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <v>472135</v>
       </c>
-      <c r="F4" s="10">
-        <f t="shared" si="0"/>
+      <c r="F4" s="12">
         <v>40343</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="12">
         <v>1194400</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" si="1"/>
+      <c r="H4" s="13">
         <v>6</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="I4" s="14">
+        <v>2</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
         <v>8</v>
       </c>
     </row>
@@ -919,30 +952,28 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>283739</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="12">
         <v>392086</v>
       </c>
-      <c r="F5" s="10">
-        <f t="shared" si="0"/>
+      <c r="F5" s="12">
         <v>12451</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="12">
         <v>688276</v>
       </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14">
         <v>3</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
         <v>4</v>
       </c>
     </row>
@@ -956,30 +987,28 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="11">
         <v>3225666</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="12">
         <v>3731081</v>
       </c>
-      <c r="F6" s="10">
-        <f t="shared" si="0"/>
+      <c r="F6" s="12">
         <v>301670</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="12">
         <v>7258417</v>
       </c>
-      <c r="H6" s="4">
-        <f t="shared" si="1"/>
+      <c r="H6" s="13">
         <v>20</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="14">
         <v>33</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <v>53</v>
       </c>
     </row>
@@ -993,30 +1022,28 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="11">
         <v>752998</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="12">
         <v>589463</v>
       </c>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
+      <c r="F7" s="12">
         <v>54627</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="12">
         <v>1397088</v>
       </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
+      <c r="H7" s="13">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
         <v>7</v>
       </c>
     </row>
@@ -1030,30 +1057,28 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>465982</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="12">
         <v>509036</v>
       </c>
-      <c r="F8" s="10">
-        <f t="shared" si="0"/>
+      <c r="F8" s="12">
         <v>14291</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="12">
         <v>989309</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" si="1"/>
+      <c r="H8" s="13">
         <v>3</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="I8" s="14">
+        <v>2</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
         <v>5</v>
       </c>
     </row>
@@ -1067,30 +1092,28 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
         <v>164605</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="12">
         <v>61011</v>
       </c>
-      <c r="F9" s="10">
-        <f t="shared" si="0"/>
+      <c r="F9" s="12">
         <v>2789</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="12">
         <v>228405</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1104,30 +1127,28 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>2161349</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="12">
         <v>1537124</v>
       </c>
-      <c r="F10" s="10">
-        <f t="shared" si="0"/>
+      <c r="F10" s="12">
         <v>68085</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="12">
         <v>3766558</v>
       </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
+      <c r="H10" s="13">
         <v>18</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="14">
         <v>7</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
         <v>25</v>
       </c>
     </row>
@@ -1141,30 +1162,28 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="11">
         <v>1104622</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="12">
         <v>814295</v>
       </c>
-      <c r="F11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
         <v>1918917</v>
       </c>
-      <c r="H11" s="4">
-        <f t="shared" si="1"/>
+      <c r="H11" s="13">
         <v>8</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="14">
         <v>5</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
         <v>13</v>
       </c>
     </row>
@@ -1178,30 +1197,28 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="11">
         <v>116693</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="12">
         <v>232344</v>
       </c>
-      <c r="F12" s="10">
-        <f t="shared" si="0"/>
+      <c r="F12" s="12">
         <v>10947</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="12">
         <v>359984</v>
       </c>
-      <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>2</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
         <v>2</v>
       </c>
     </row>
@@ -1215,30 +1232,28 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="11">
         <v>256348</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="12">
         <v>138038</v>
       </c>
-      <c r="F13" s="10">
-        <f t="shared" si="0"/>
+      <c r="F13" s="12">
         <v>10637</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="12">
         <v>405023</v>
       </c>
-      <c r="H13" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="H13" s="13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
         <v>2</v>
       </c>
     </row>
@@ -1252,30 +1267,28 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="11">
         <v>1657183</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="12">
         <v>1740541</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" si="0"/>
+      <c r="F14" s="12">
         <v>31412</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="12">
         <v>3429136</v>
       </c>
-      <c r="H14" s="4">
-        <f t="shared" si="1"/>
+      <c r="H14" s="13">
         <v>10</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="14">
         <v>9</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
         <v>19</v>
       </c>
     </row>
@@ -1289,30 +1302,28 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="11">
         <v>840694</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="12">
         <v>640568</v>
       </c>
-      <c r="F15" s="10">
-        <f t="shared" si="0"/>
+      <c r="F15" s="12">
         <v>40091</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="12">
         <v>1521353</v>
       </c>
-      <c r="H15" s="4">
-        <f t="shared" si="1"/>
+      <c r="H15" s="13">
         <v>6</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="14">
         <v>3</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
         <v>9</v>
       </c>
     </row>
@@ -1326,30 +1337,28 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="11">
         <v>546382</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="12">
         <v>453550</v>
       </c>
-      <c r="F16" s="10">
-        <f t="shared" si="0"/>
+      <c r="F16" s="12">
         <v>12690</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="12">
         <v>1012622</v>
       </c>
-      <c r="H16" s="4">
-        <f t="shared" si="1"/>
+      <c r="H16" s="13">
         <v>4</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
         <v>5</v>
       </c>
     </row>
@@ -1363,30 +1372,28 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="11">
         <v>536026</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="12">
         <v>259911</v>
       </c>
-      <c r="F17" s="10">
-        <f t="shared" si="0"/>
+      <c r="F17" s="12">
         <v>33953</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="12">
         <v>829890</v>
       </c>
-      <c r="H17" s="4">
-        <f t="shared" si="1"/>
+      <c r="H17" s="13">
         <v>3</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
         <v>4</v>
       </c>
     </row>
@@ -1400,30 +1407,28 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="11">
         <v>693860</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="12">
         <v>350924</v>
       </c>
-      <c r="F18" s="10">
-        <f t="shared" si="0"/>
+      <c r="F18" s="12">
         <v>49458</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="12">
         <v>1094242</v>
       </c>
-      <c r="H18" s="4">
-        <f t="shared" si="1"/>
+      <c r="H18" s="13">
         <v>4</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
+      <c r="I18" s="14">
+        <v>2</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14">
         <v>6</v>
       </c>
     </row>
@@ -1437,30 +1442,28 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="11">
         <v>667702</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="12">
         <v>390644</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" si="0"/>
+      <c r="F19" s="12">
         <v>81817</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="12">
         <v>1140163</v>
       </c>
-      <c r="H19" s="4">
-        <f t="shared" si="1"/>
+      <c r="H19" s="13">
         <v>5</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="I19" s="14">
+        <v>2</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
         <v>7</v>
       </c>
     </row>
@@ -1474,30 +1477,28 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="11">
         <v>205780</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="12">
         <v>289514</v>
       </c>
-      <c r="F20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
         <v>495294</v>
       </c>
-      <c r="H20" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>2</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
         <v>2</v>
       </c>
     </row>
@@ -1511,30 +1512,28 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="11">
         <v>752911</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="12">
         <v>904250</v>
       </c>
-      <c r="F21" s="10">
-        <f t="shared" si="0"/>
+      <c r="F21" s="12">
         <v>1952</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="12">
         <v>1659113</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I21">
+      <c r="H21" s="13">
+        <v>2</v>
+      </c>
+      <c r="I21" s="14">
         <v>6</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
         <v>8</v>
       </c>
     </row>
@@ -1548,30 +1547,28 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="11">
         <v>290484</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="12">
         <v>1528634</v>
       </c>
-      <c r="F22" s="10">
-        <f t="shared" si="0"/>
+      <c r="F22" s="12">
         <v>401208</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="12">
         <v>2220326</v>
       </c>
-      <c r="H22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
         <v>10</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
+      <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
         <v>10</v>
       </c>
     </row>
@@ -1585,30 +1582,28 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="11">
         <v>1474178</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="12">
         <v>1507174</v>
       </c>
-      <c r="F23" s="10">
-        <f t="shared" si="0"/>
+      <c r="F23" s="12">
         <v>74545</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="12">
         <v>3055897</v>
       </c>
-      <c r="H23" s="4">
-        <f t="shared" si="1"/>
+      <c r="H23" s="13">
         <v>9</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="14">
         <v>6</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
         <v>15</v>
       </c>
     </row>
@@ -1622,30 +1617,28 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="11">
         <v>1029612</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="12">
         <v>1097911</v>
       </c>
-      <c r="F24" s="10">
-        <f t="shared" si="0"/>
+      <c r="F24" s="12">
         <v>74115</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="12">
         <v>2201638</v>
       </c>
-      <c r="H24" s="4">
-        <f t="shared" si="1"/>
+      <c r="H24" s="13">
         <v>4</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="14">
         <v>4</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
         <v>8</v>
       </c>
     </row>
@@ -1659,30 +1652,28 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="11">
         <v>338817</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="12">
         <v>320157</v>
       </c>
-      <c r="F25" s="10">
-        <f t="shared" si="0"/>
+      <c r="F25" s="12">
         <v>18662</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="12">
         <v>677636</v>
       </c>
-      <c r="H25" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+      <c r="H25" s="13">
+        <v>2</v>
+      </c>
+      <c r="I25" s="14">
+        <v>2</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
         <v>4</v>
       </c>
     </row>
@@ -1696,30 +1687,28 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="11">
         <v>985905</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="12">
         <v>829177</v>
       </c>
-      <c r="F26" s="10">
-        <f t="shared" si="0"/>
+      <c r="F26" s="12">
         <v>38481</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="12">
         <v>1853563</v>
       </c>
-      <c r="H26" s="4">
-        <f t="shared" si="1"/>
+      <c r="H26" s="13">
         <v>5</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="14">
         <v>4</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
         <v>9</v>
       </c>
     </row>
@@ -1733,30 +1722,28 @@
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="11">
         <v>214100</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="12">
         <v>108233</v>
       </c>
-      <c r="F27" s="10">
-        <f t="shared" si="0"/>
+      <c r="F27" s="12">
         <v>8988</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="12">
         <v>331321</v>
       </c>
-      <c r="H27" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1770,30 +1757,28 @@
       <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="11">
         <v>386869</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="12">
         <v>46843</v>
       </c>
-      <c r="F28" s="10">
-        <f t="shared" si="0"/>
+      <c r="F28" s="12">
         <v>40102</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="12">
         <v>473814</v>
       </c>
-      <c r="H28" s="4">
-        <f t="shared" si="1"/>
+      <c r="H28" s="13">
         <v>3</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
+      <c r="I28" s="14">
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
         <v>3</v>
       </c>
     </row>
@@ -1807,30 +1792,28 @@
       <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="11">
         <v>301100</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="12">
         <v>171160</v>
       </c>
-      <c r="F29" s="10">
-        <f t="shared" si="0"/>
+      <c r="F29" s="12">
         <v>29593</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="12">
         <v>501853</v>
       </c>
-      <c r="H29" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
+      <c r="H29" s="13">
+        <v>2</v>
+      </c>
+      <c r="I29" s="14">
+        <v>1</v>
+      </c>
+      <c r="J29" s="14">
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
         <v>3</v>
       </c>
     </row>
@@ -1844,30 +1827,28 @@
       <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="11">
         <v>254797</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="12">
         <v>175905</v>
       </c>
-      <c r="F30" s="10">
-        <f t="shared" si="0"/>
+      <c r="F30" s="12">
         <v>12741</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="12">
         <v>443443</v>
       </c>
-      <c r="H30" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
+      <c r="H30" s="13">
+        <v>2</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="14">
         <v>2</v>
       </c>
     </row>
@@ -1881,30 +1862,28 @@
       <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="11">
         <v>933964</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="12">
         <v>1030204</v>
       </c>
-      <c r="F31" s="10">
-        <f t="shared" si="0"/>
+      <c r="F31" s="12">
         <v>41891</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="12">
         <v>2006059</v>
       </c>
-      <c r="H31" s="4">
-        <f t="shared" si="1"/>
+      <c r="H31" s="13">
         <v>6</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="14">
         <v>7</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
+      <c r="J31" s="14">
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
         <v>13</v>
       </c>
     </row>
@@ -1918,30 +1897,28 @@
       <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="11">
         <v>175342</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="12">
         <v>262071</v>
       </c>
-      <c r="F32" s="10">
-        <f t="shared" si="0"/>
+      <c r="F32" s="12">
         <v>82</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="12">
         <v>437495</v>
       </c>
-      <c r="H32" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
+      <c r="H32" s="13">
+        <v>2</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0</v>
+      </c>
+      <c r="K32" s="14">
         <v>3</v>
       </c>
     </row>
@@ -1955,30 +1932,28 @@
       <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="11">
         <v>1525771</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="12">
         <v>1777688</v>
       </c>
-      <c r="F33" s="10">
-        <f t="shared" si="0"/>
+      <c r="F33" s="12">
         <v>1397550</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="12">
         <v>4701009</v>
       </c>
-      <c r="H33" s="4">
-        <f t="shared" si="1"/>
+      <c r="H33" s="13">
         <v>10</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="14">
         <v>19</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
+      <c r="J33" s="14">
+        <v>0</v>
+      </c>
+      <c r="K33" s="14">
         <v>29</v>
       </c>
     </row>
@@ -1992,30 +1967,28 @@
       <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="11">
         <v>1209033</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="12">
         <v>970716</v>
       </c>
-      <c r="F34" s="10">
-        <f t="shared" si="0"/>
+      <c r="F34" s="12">
         <v>64400</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="12">
         <v>2244149</v>
       </c>
-      <c r="H34" s="4">
-        <f t="shared" si="1"/>
+      <c r="H34" s="13">
         <v>7</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="14">
         <v>6</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
+      <c r="J34" s="14">
+        <v>0</v>
+      </c>
+      <c r="K34" s="14">
         <v>13</v>
       </c>
     </row>
@@ -2029,30 +2002,28 @@
       <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="11">
         <v>109957</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="12">
         <v>121073</v>
       </c>
-      <c r="F35" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
         <v>231030</v>
       </c>
-      <c r="H35" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <v>1</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2066,30 +2037,28 @@
       <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="11">
         <v>1775555</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="12">
         <v>1331614</v>
       </c>
-      <c r="F36" s="10">
-        <f t="shared" si="0"/>
+      <c r="F36" s="12">
         <v>50854</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="12">
         <v>3158023</v>
       </c>
-      <c r="H36" s="4">
-        <f t="shared" si="1"/>
+      <c r="H36" s="13">
         <v>12</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="14">
         <v>6</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
+      <c r="J36" s="14">
+        <v>0</v>
+      </c>
+      <c r="K36" s="14">
         <v>18</v>
       </c>
     </row>
@@ -2103,30 +2072,28 @@
       <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="11">
         <v>546832</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="12">
         <v>391927</v>
       </c>
-      <c r="F37" s="10">
-        <f t="shared" si="0"/>
+      <c r="F37" s="12">
         <v>63093</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="12">
         <v>1001852</v>
       </c>
-      <c r="H37" s="4">
-        <f t="shared" si="1"/>
+      <c r="H37" s="13">
         <v>4</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
+      <c r="I37" s="14">
+        <v>1</v>
+      </c>
+      <c r="J37" s="14">
+        <v>0</v>
+      </c>
+      <c r="K37" s="14">
         <v>5</v>
       </c>
     </row>
@@ -2140,30 +2107,28 @@
       <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="11">
         <v>528997</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="12">
         <v>676920</v>
       </c>
-      <c r="F38" s="10">
-        <f t="shared" si="0"/>
+      <c r="F38" s="12">
         <v>34398</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="12">
         <v>1240315</v>
       </c>
-      <c r="H38" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I38">
+      <c r="H38" s="13">
+        <v>1</v>
+      </c>
+      <c r="I38" s="14">
         <v>4</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
+      <c r="J38" s="14">
+        <v>0</v>
+      </c>
+      <c r="K38" s="14">
         <v>5</v>
       </c>
     </row>
@@ -2177,30 +2142,28 @@
       <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="11">
         <v>1859270</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="12">
         <v>1348665</v>
       </c>
-      <c r="F39" s="10">
-        <f t="shared" si="0"/>
+      <c r="F39" s="12">
         <v>102378</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="12">
         <v>3310313</v>
       </c>
-      <c r="H39" s="4">
-        <f t="shared" si="1"/>
+      <c r="H39" s="13">
         <v>12</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="14">
         <v>7</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
+      <c r="J39" s="14">
+        <v>0</v>
+      </c>
+      <c r="K39" s="14">
         <v>19</v>
       </c>
     </row>
@@ -2214,30 +2177,28 @@
       <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="11">
         <v>97137</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="12">
         <v>224676</v>
       </c>
-      <c r="F40" s="10">
-        <f t="shared" si="0"/>
+      <c r="F40" s="12">
         <v>6930</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="12">
         <v>328743</v>
       </c>
-      <c r="H40" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14">
+        <v>2</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0</v>
+      </c>
+      <c r="K40" s="14">
         <v>2</v>
       </c>
     </row>
@@ -2251,30 +2212,28 @@
       <c r="C41" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="11">
         <v>569267</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="12">
         <v>344972</v>
       </c>
-      <c r="F41" s="10">
-        <f t="shared" si="0"/>
+      <c r="F41" s="12">
         <v>70176</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="12">
         <v>984415</v>
       </c>
-      <c r="H41" s="4">
-        <f t="shared" si="1"/>
+      <c r="H41" s="13">
         <v>4</v>
       </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
+      <c r="I41" s="14">
+        <v>2</v>
+      </c>
+      <c r="J41" s="14">
+        <v>0</v>
+      </c>
+      <c r="K41" s="14">
         <v>6</v>
       </c>
     </row>
@@ -2288,30 +2247,28 @@
       <c r="C42" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="11">
         <v>180023</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="12">
         <v>153551</v>
       </c>
-      <c r="F42" s="10">
-        <f t="shared" si="0"/>
+      <c r="F42" s="12">
         <v>3117</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="12">
         <v>336691</v>
       </c>
-      <c r="H42" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
+      <c r="H42" s="13">
+        <v>1</v>
+      </c>
+      <c r="I42" s="14">
+        <v>0</v>
+      </c>
+      <c r="J42" s="14">
+        <v>0</v>
+      </c>
+      <c r="K42" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2325,30 +2282,28 @@
       <c r="C43" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="11">
         <v>770510</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="12">
         <v>708375</v>
       </c>
-      <c r="F43" s="10">
-        <f t="shared" si="0"/>
+      <c r="F43" s="12">
         <v>50505</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="12">
         <v>1529390</v>
       </c>
-      <c r="H43" s="4">
-        <f t="shared" si="1"/>
+      <c r="H43" s="13">
         <v>4</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="14">
         <v>5</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
+      <c r="J43" s="14">
+        <v>0</v>
+      </c>
+      <c r="K43" s="14">
         <v>9</v>
       </c>
     </row>
@@ -2362,30 +2317,28 @@
       <c r="C44" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="11">
         <v>2290723</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="12">
         <v>1885178</v>
       </c>
-      <c r="F44" s="10">
-        <f t="shared" si="0"/>
+      <c r="F44" s="12">
         <v>119309</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="12">
         <v>4295210</v>
       </c>
-      <c r="H44" s="4">
-        <f t="shared" si="1"/>
+      <c r="H44" s="13">
         <v>15</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="14">
         <v>17</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
+      <c r="J44" s="14">
+        <v>0</v>
+      </c>
+      <c r="K44" s="14">
         <v>32</v>
       </c>
     </row>
@@ -2399,30 +2352,28 @@
       <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="11">
         <v>321986</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="12">
         <v>221401</v>
       </c>
-      <c r="F45" s="10">
-        <f t="shared" si="0"/>
+      <c r="F45" s="12">
         <v>13766</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="12">
         <v>557153</v>
       </c>
-      <c r="H45" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
+      <c r="H45" s="13">
+        <v>2</v>
+      </c>
+      <c r="I45" s="14">
+        <v>1</v>
+      </c>
+      <c r="J45" s="14">
+        <v>0</v>
+      </c>
+      <c r="K45" s="14">
         <v>3</v>
       </c>
     </row>
@@ -2436,30 +2387,28 @@
       <c r="C46" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="11">
         <v>72813</v>
       </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46" s="10">
-        <f t="shared" si="0"/>
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+      <c r="F46" s="12">
         <v>152442</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="12">
         <v>225255</v>
       </c>
-      <c r="H46" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="14">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
+        <v>1</v>
+      </c>
+      <c r="K46" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2473,30 +2422,28 @@
       <c r="C47" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="11">
         <v>955673</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="12">
         <v>440478</v>
       </c>
-      <c r="F47" s="10">
-        <f t="shared" si="0"/>
+      <c r="F47" s="12">
         <v>120331</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="12">
         <v>1516482</v>
       </c>
-      <c r="H47" s="4">
-        <f t="shared" si="1"/>
+      <c r="H47" s="13">
         <v>8</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="14">
         <v>3</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
+      <c r="J47" s="14">
+        <v>0</v>
+      </c>
+      <c r="K47" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2510,30 +2457,28 @@
       <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="11">
         <v>778922</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="12">
         <v>907440</v>
       </c>
-      <c r="F48" s="10">
-        <f t="shared" si="0"/>
+      <c r="F48" s="12">
         <v>52754</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="12">
         <v>1739116</v>
       </c>
-      <c r="H48" s="4">
-        <f t="shared" si="1"/>
+      <c r="H48" s="13">
         <v>3</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="14">
         <v>6</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
+      <c r="J48" s="14">
+        <v>0</v>
+      </c>
+      <c r="K48" s="14">
         <v>9</v>
       </c>
     </row>
@@ -2547,30 +2492,28 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="11">
         <v>135505</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="12">
         <v>264124</v>
       </c>
-      <c r="F49" s="10">
-        <f t="shared" si="0"/>
+      <c r="F49" s="12">
         <v>320</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="12">
         <v>399949</v>
       </c>
-      <c r="H49" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
+      <c r="H49" s="13">
+        <v>1</v>
+      </c>
+      <c r="I49" s="14">
+        <v>2</v>
+      </c>
+      <c r="J49" s="14">
+        <v>0</v>
+      </c>
+      <c r="K49" s="14">
         <v>3</v>
       </c>
     </row>
@@ -2584,30 +2527,28 @@
       <c r="C50" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="11">
         <v>889146</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="12">
         <v>676925</v>
       </c>
-      <c r="F50" s="10">
-        <f t="shared" si="0"/>
+      <c r="F50" s="12">
         <v>71475</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="12">
         <v>1637546</v>
       </c>
-      <c r="H50" s="4">
-        <f t="shared" si="1"/>
+      <c r="H50" s="13">
         <v>4</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="14">
         <v>4</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
+      <c r="J50" s="14">
+        <v>0</v>
+      </c>
+      <c r="K50" s="14">
         <v>8</v>
       </c>
     </row>
@@ -2621,30 +2562,1700 @@
       <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="11">
         <v>110229</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="12">
         <v>65961</v>
       </c>
-      <c r="F51" s="10">
-        <f t="shared" si="0"/>
+      <c r="F51" s="12">
         <v>5962</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="12">
         <v>182152</v>
       </c>
-      <c r="H51" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="H51" s="13">
+        <v>1</v>
+      </c>
+      <c r="I51" s="14">
+        <v>0</v>
+      </c>
+      <c r="J51" s="14">
+        <v>0</v>
+      </c>
+      <c r="K51" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="15">
+        <f>SUM(E2:E51)/SUM(D2:E51)</f>
+        <v>0.47561882070668388</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="4"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EA5B72-E585-1C41-8F8C-66170EE0C8E9}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>694606</v>
+      </c>
+      <c r="D2">
+        <v>507117</v>
+      </c>
+      <c r="E2">
+        <v>67079</v>
+      </c>
+      <c r="F2">
+        <v>1268802</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>169685</v>
+      </c>
+      <c r="D3">
+        <v>39357</v>
+      </c>
+      <c r="E3">
+        <v>18683</v>
+      </c>
+      <c r="F3">
+        <v>227725</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>681922</v>
+      </c>
+      <c r="D4">
+        <v>472135</v>
+      </c>
+      <c r="E4">
+        <v>40343</v>
+      </c>
+      <c r="F4">
+        <v>1194400</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>283739</v>
+      </c>
+      <c r="D5">
+        <v>392086</v>
+      </c>
+      <c r="E5">
+        <v>12451</v>
+      </c>
+      <c r="F5">
+        <v>688276</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3225666</v>
+      </c>
+      <c r="D6">
+        <v>3731081</v>
+      </c>
+      <c r="E6">
+        <v>301670</v>
+      </c>
+      <c r="F6">
+        <v>7258417</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>752998</v>
+      </c>
+      <c r="D7">
+        <v>589463</v>
+      </c>
+      <c r="E7">
+        <v>54627</v>
+      </c>
+      <c r="F7">
+        <v>1397088</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>465982</v>
+      </c>
+      <c r="D8">
+        <v>509036</v>
+      </c>
+      <c r="E8">
+        <v>14291</v>
+      </c>
+      <c r="F8">
+        <v>989309</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>164605</v>
+      </c>
+      <c r="D9">
+        <v>61011</v>
+      </c>
+      <c r="E9">
+        <v>2789</v>
+      </c>
+      <c r="F9">
+        <v>228405</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>2161349</v>
+      </c>
+      <c r="D10">
+        <v>1537124</v>
+      </c>
+      <c r="E10">
+        <v>68085</v>
+      </c>
+      <c r="F10">
+        <v>3766558</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>1104622</v>
+      </c>
+      <c r="D11">
+        <v>814295</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1918917</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>116693</v>
+      </c>
+      <c r="D12">
+        <v>232344</v>
+      </c>
+      <c r="E12">
+        <v>10947</v>
+      </c>
+      <c r="F12">
+        <v>359984</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>256348</v>
+      </c>
+      <c r="D13">
+        <v>138038</v>
+      </c>
+      <c r="E13">
+        <v>10637</v>
+      </c>
+      <c r="F13">
+        <v>405023</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1657183</v>
+      </c>
+      <c r="D14">
+        <v>1740541</v>
+      </c>
+      <c r="E14">
+        <v>31412</v>
+      </c>
+      <c r="F14">
+        <v>3429136</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>840694</v>
+      </c>
+      <c r="D15">
+        <v>640568</v>
+      </c>
+      <c r="E15">
+        <v>40091</v>
+      </c>
+      <c r="F15">
+        <v>1521353</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>546382</v>
+      </c>
+      <c r="D16">
+        <v>453550</v>
+      </c>
+      <c r="E16">
+        <v>12690</v>
+      </c>
+      <c r="F16">
+        <v>1012622</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>536026</v>
+      </c>
+      <c r="D17">
+        <v>259911</v>
+      </c>
+      <c r="E17">
+        <v>33953</v>
+      </c>
+      <c r="F17">
+        <v>829890</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>693860</v>
+      </c>
+      <c r="D18">
+        <v>350924</v>
+      </c>
+      <c r="E18">
+        <v>49458</v>
+      </c>
+      <c r="F18">
+        <v>1094242</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>667702</v>
+      </c>
+      <c r="D19">
+        <v>390644</v>
+      </c>
+      <c r="E19">
+        <v>81817</v>
+      </c>
+      <c r="F19">
+        <v>1140163</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>205780</v>
+      </c>
+      <c r="D20">
+        <v>289514</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>495294</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>752911</v>
+      </c>
+      <c r="D21">
+        <v>904250</v>
+      </c>
+      <c r="E21">
+        <v>1952</v>
+      </c>
+      <c r="F21">
+        <v>1659113</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>290484</v>
+      </c>
+      <c r="D22">
+        <v>1528634</v>
+      </c>
+      <c r="E22">
+        <v>401208</v>
+      </c>
+      <c r="F22">
+        <v>2220326</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>1474178</v>
+      </c>
+      <c r="D23">
+        <v>1507174</v>
+      </c>
+      <c r="E23">
+        <v>74545</v>
+      </c>
+      <c r="F23">
+        <v>3055897</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>1029612</v>
+      </c>
+      <c r="D24">
+        <v>1097911</v>
+      </c>
+      <c r="E24">
+        <v>74115</v>
+      </c>
+      <c r="F24">
+        <v>2201638</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>338817</v>
+      </c>
+      <c r="D25">
+        <v>320157</v>
+      </c>
+      <c r="E25">
+        <v>18662</v>
+      </c>
+      <c r="F25">
+        <v>677636</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>985905</v>
+      </c>
+      <c r="D26">
+        <v>829177</v>
+      </c>
+      <c r="E26">
+        <v>38481</v>
+      </c>
+      <c r="F26">
+        <v>1853563</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>214100</v>
+      </c>
+      <c r="D27">
+        <v>108233</v>
+      </c>
+      <c r="E27">
+        <v>8988</v>
+      </c>
+      <c r="F27">
+        <v>331321</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>386869</v>
+      </c>
+      <c r="D28">
+        <v>46843</v>
+      </c>
+      <c r="E28">
+        <v>40102</v>
+      </c>
+      <c r="F28">
+        <v>473814</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>301100</v>
+      </c>
+      <c r="D29">
+        <v>171160</v>
+      </c>
+      <c r="E29">
+        <v>29593</v>
+      </c>
+      <c r="F29">
+        <v>501853</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>254797</v>
+      </c>
+      <c r="D30">
+        <v>175905</v>
+      </c>
+      <c r="E30">
+        <v>12741</v>
+      </c>
+      <c r="F30">
+        <v>443443</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>933964</v>
+      </c>
+      <c r="D31">
+        <v>1030204</v>
+      </c>
+      <c r="E31">
+        <v>41891</v>
+      </c>
+      <c r="F31">
+        <v>2006059</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>175342</v>
+      </c>
+      <c r="D32">
+        <v>262071</v>
+      </c>
+      <c r="E32">
+        <v>82</v>
+      </c>
+      <c r="F32">
+        <v>437495</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>1525771</v>
+      </c>
+      <c r="D33">
+        <v>1777688</v>
+      </c>
+      <c r="E33">
+        <v>1397550</v>
+      </c>
+      <c r="F33">
+        <v>4701009</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>19</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>1209033</v>
+      </c>
+      <c r="D34">
+        <v>970716</v>
+      </c>
+      <c r="E34">
+        <v>64400</v>
+      </c>
+      <c r="F34">
+        <v>2244149</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <v>109957</v>
+      </c>
+      <c r="D35">
+        <v>121073</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>231030</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>1775555</v>
+      </c>
+      <c r="D36">
+        <v>1331614</v>
+      </c>
+      <c r="E36">
+        <v>50854</v>
+      </c>
+      <c r="F36">
+        <v>3158023</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>546832</v>
+      </c>
+      <c r="D37">
+        <v>391927</v>
+      </c>
+      <c r="E37">
+        <v>63093</v>
+      </c>
+      <c r="F37">
+        <v>1001852</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>528997</v>
+      </c>
+      <c r="D38">
+        <v>676920</v>
+      </c>
+      <c r="E38">
+        <v>34398</v>
+      </c>
+      <c r="F38">
+        <v>1240315</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>1859270</v>
+      </c>
+      <c r="D39">
+        <v>1348665</v>
+      </c>
+      <c r="E39">
+        <v>102378</v>
+      </c>
+      <c r="F39">
+        <v>3310313</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>97137</v>
+      </c>
+      <c r="D40">
+        <v>224676</v>
+      </c>
+      <c r="E40">
+        <v>6930</v>
+      </c>
+      <c r="F40">
+        <v>328743</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41">
+        <v>569267</v>
+      </c>
+      <c r="D41">
+        <v>344972</v>
+      </c>
+      <c r="E41">
+        <v>70176</v>
+      </c>
+      <c r="F41">
+        <v>984415</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <v>180023</v>
+      </c>
+      <c r="D42">
+        <v>153551</v>
+      </c>
+      <c r="E42">
+        <v>3117</v>
+      </c>
+      <c r="F42">
+        <v>336691</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43">
+        <v>770510</v>
+      </c>
+      <c r="D43">
+        <v>708375</v>
+      </c>
+      <c r="E43">
+        <v>50505</v>
+      </c>
+      <c r="F43">
+        <v>1529390</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <v>2290723</v>
+      </c>
+      <c r="D44">
+        <v>1885178</v>
+      </c>
+      <c r="E44">
+        <v>119309</v>
+      </c>
+      <c r="F44">
+        <v>4295210</v>
+      </c>
+      <c r="G44">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>17</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>321986</v>
+      </c>
+      <c r="D45">
+        <v>221401</v>
+      </c>
+      <c r="E45">
+        <v>13766</v>
+      </c>
+      <c r="F45">
+        <v>557153</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46">
+        <v>72813</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>152442</v>
+      </c>
+      <c r="F46">
+        <v>225255</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47">
+        <v>955673</v>
+      </c>
+      <c r="D47">
+        <v>440478</v>
+      </c>
+      <c r="E47">
+        <v>120331</v>
+      </c>
+      <c r="F47">
+        <v>1516482</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48">
+        <v>778922</v>
+      </c>
+      <c r="D48">
+        <v>907440</v>
+      </c>
+      <c r="E48">
+        <v>52754</v>
+      </c>
+      <c r="F48">
+        <v>1739116</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>135505</v>
+      </c>
+      <c r="D49">
+        <v>264124</v>
+      </c>
+      <c r="E49">
+        <v>320</v>
+      </c>
+      <c r="F49">
+        <v>399949</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>889146</v>
+      </c>
+      <c r="D50">
+        <v>676925</v>
+      </c>
+      <c r="E50">
+        <v>71475</v>
+      </c>
+      <c r="F50">
+        <v>1637546</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>110229</v>
+      </c>
+      <c r="D51">
+        <v>65961</v>
+      </c>
+      <c r="E51">
+        <v>5962</v>
+      </c>
+      <c r="F51">
+        <v>182152</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
         <v>1</v>
       </c>
     </row>
